--- a/data/trans_orig/IP07A24_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A24_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{087B1139-BA57-4AF0-A5CB-0F5970254274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DC6DDE6-A90F-4E6D-9BC8-3E32D3565227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{2D2F3EF0-FDA0-41DF-8266-479E73887779}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{DFDBEAEB-D1F3-4F37-ADC0-EC5915C22FFE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -68,27 +68,180 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
     <t>2,55%</t>
   </si>
   <si>
@@ -101,12 +254,6 @@
     <t>1,67%</t>
   </si>
   <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
     <t>2,14%</t>
   </si>
   <si>
@@ -116,30 +263,6 @@
     <t>3,36%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
     <t>23,83%</t>
   </si>
   <si>
@@ -167,24 +290,6 @@
     <t>29,49%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
     <t>72,76%</t>
   </si>
   <si>
@@ -212,109 +317,46 @@
     <t>75,39%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
   </si>
   <si>
     <t>2,22%</t>
@@ -338,36 +380,9 @@
     <t>2,08%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
     <t>3,14%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
     <t>23,14%</t>
   </si>
   <si>
@@ -393,21 +408,6 @@
   </si>
   <si>
     <t>28,14%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
   </si>
   <si>
     <t>73,67%</t>
@@ -826,7 +826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB036E77-8CB4-4B22-9223-D8EEFFE5CA72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1AD2139-D6FB-4E22-88AF-491FD4864FE1}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1216,10 +1216,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>8940</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1231,34 +1231,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I10" s="7">
-        <v>4965</v>
+        <v>692</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>692</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="7">
-        <v>19</v>
-      </c>
-      <c r="N10" s="7">
-        <v>13904</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1267,49 +1267,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>1346</v>
+        <v>1012</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1012</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1586</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="7">
-        <v>4</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2932</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1318,49 +1318,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>83652</v>
+        <v>364</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1968</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="7">
+        <v>3</v>
+      </c>
+      <c r="N12" s="7">
+        <v>2332</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="7">
-        <v>96</v>
-      </c>
-      <c r="I12" s="7">
-        <v>80437</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="M12" s="7">
-        <v>187</v>
-      </c>
-      <c r="N12" s="7">
-        <v>164089</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1369,49 +1369,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>1684</v>
+        <v>13217</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="7">
+        <v>14</v>
+      </c>
+      <c r="I13" s="7">
+        <v>13008</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M13" s="7">
+        <v>29</v>
+      </c>
+      <c r="N13" s="7">
+        <v>26226</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>705</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M13" s="7">
-        <v>3</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2389</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1420,49 +1420,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>302</v>
+        <v>63</v>
       </c>
       <c r="D14" s="7">
-        <v>255356</v>
+        <v>53004</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="7">
+        <v>65</v>
+      </c>
+      <c r="I14" s="7">
+        <v>46785</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>128</v>
+      </c>
+      <c r="N14" s="7">
+        <v>99789</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="7">
-        <v>286</v>
-      </c>
-      <c r="I14" s="7">
-        <v>210416</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M14" s="7">
-        <v>588</v>
-      </c>
-      <c r="N14" s="7">
-        <v>465772</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1471,102 +1471,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>408</v>
+        <v>80</v>
       </c>
       <c r="D15" s="7">
-        <v>350978</v>
+        <v>67597</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H15" s="7">
-        <v>393</v>
+        <v>82</v>
       </c>
       <c r="I15" s="7">
-        <v>298109</v>
+        <v>62453</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M15" s="7">
-        <v>801</v>
+        <v>162</v>
       </c>
       <c r="N15" s="7">
-        <v>649087</v>
+        <v>130050</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1684</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="7">
-        <v>364</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
       <c r="I16" s="7">
-        <v>1968</v>
+        <v>705</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>2332</v>
+        <v>2389</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1575,49 +1575,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>1012</v>
+        <v>1346</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1586</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="M17" s="7">
+        <v>4</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2932</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="P17" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1012</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1626,49 +1626,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D18" s="7">
-        <v>13217</v>
+        <v>8940</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="7">
+        <v>8</v>
+      </c>
+      <c r="I18" s="7">
+        <v>4965</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="K18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="7">
+        <v>19</v>
+      </c>
+      <c r="N18" s="7">
+        <v>13904</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H18" s="7">
-        <v>14</v>
-      </c>
-      <c r="I18" s="7">
-        <v>13008</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M18" s="7">
-        <v>29</v>
-      </c>
-      <c r="N18" s="7">
-        <v>26226</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,46 +1677,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>83652</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="7">
+        <v>96</v>
+      </c>
+      <c r="I19" s="7">
+        <v>80437</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>692</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>187</v>
+      </c>
+      <c r="N19" s="7">
+        <v>164089</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>692</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>83</v>
@@ -1728,10 +1728,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>63</v>
+        <v>302</v>
       </c>
       <c r="D20" s="7">
-        <v>53004</v>
+        <v>255356</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>84</v>
@@ -1743,10 +1743,10 @@
         <v>86</v>
       </c>
       <c r="H20" s="7">
-        <v>65</v>
+        <v>286</v>
       </c>
       <c r="I20" s="7">
-        <v>46785</v>
+        <v>210416</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>87</v>
@@ -1758,10 +1758,10 @@
         <v>89</v>
       </c>
       <c r="M20" s="7">
-        <v>128</v>
+        <v>588</v>
       </c>
       <c r="N20" s="7">
-        <v>99789</v>
+        <v>465772</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>90</v>
@@ -1779,49 +1779,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="D21" s="7">
-        <v>67597</v>
+        <v>350978</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H21" s="7">
-        <v>82</v>
+        <v>393</v>
       </c>
       <c r="I21" s="7">
-        <v>62453</v>
+        <v>298109</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M21" s="7">
-        <v>162</v>
+        <v>801</v>
       </c>
       <c r="N21" s="7">
-        <v>130050</v>
+        <v>649087</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,49 +1832,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>9304</v>
+        <v>1684</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>93</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1396</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H22" s="7">
-        <v>10</v>
-      </c>
-      <c r="I22" s="7">
-        <v>6932</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>4</v>
+      </c>
+      <c r="N22" s="7">
+        <v>3080</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="M22" s="7">
-        <v>22</v>
-      </c>
-      <c r="N22" s="7">
-        <v>16236</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1889,13 +1889,13 @@
         <v>2358</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H23" s="7">
         <v>2</v>
@@ -1904,13 +1904,13 @@
         <v>1586</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -1919,13 +1919,13 @@
         <v>3944</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,49 +1934,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="D24" s="7">
-        <v>96870</v>
+        <v>9304</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="7">
+        <v>10</v>
+      </c>
+      <c r="I24" s="7">
+        <v>6932</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H24" s="7">
-        <v>110</v>
-      </c>
-      <c r="I24" s="7">
-        <v>93446</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>22</v>
+      </c>
+      <c r="N24" s="7">
+        <v>16236</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="P24" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="M24" s="7">
-        <v>216</v>
-      </c>
-      <c r="N24" s="7">
-        <v>190315</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,43 +1985,43 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="D25" s="7">
-        <v>1684</v>
+        <v>96870</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H25" s="7">
+        <v>110</v>
+      </c>
+      <c r="I25" s="7">
+        <v>93446</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1396</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>216</v>
+      </c>
+      <c r="N25" s="7">
+        <v>190315</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M25" s="7">
-        <v>4</v>
-      </c>
-      <c r="N25" s="7">
-        <v>3080</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>122</v>
@@ -2093,13 +2093,13 @@
         <v>418575</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H27" s="7">
         <v>475</v>
@@ -2108,13 +2108,13 @@
         <v>360562</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M27" s="7">
         <v>963</v>
@@ -2123,13 +2123,13 @@
         <v>779138</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A24_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A24_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DC6DDE6-A90F-4E6D-9BC8-3E32D3565227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AE3315D-CF58-4614-92AA-C75E91AA7624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{DFDBEAEB-D1F3-4F37-ADC0-EC5915C22FFE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F09C25EB-5FDC-4B28-9AE0-CB4DE5BE12B7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="141">
   <si>
     <t>Menores según frecuencia de haberse divertido con sus amigos en 2023 (Tasa respuesta: 50,16%)</t>
   </si>
@@ -65,376 +65,400 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>73,2%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>70,85%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
   </si>
   <si>
     <t>0,28%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>62,76%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>67,66%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
   </si>
   <si>
     <t>0,4%</t>
   </si>
   <si>
-    <t>1,34%</t>
+    <t>1,42%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
     <t>0,09%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>78,52%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -445,7 +469,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -541,39 +565,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -625,7 +649,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -736,13 +760,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -751,6 +768,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -815,19 +839,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1AD2139-D6FB-4E22-88AF-491FD4864FE1}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429072A8-2ADA-4FF8-BAE4-955AA18320C8}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1218,47 +1262,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>692</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>692</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1267,49 +1305,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1318,49 +1350,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
-        <v>364</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>2</v>
-      </c>
-      <c r="I12" s="7">
-        <v>1968</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>3</v>
-      </c>
-      <c r="N12" s="7">
-        <v>2332</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1369,49 +1395,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
-      </c>
-      <c r="D13" s="7">
-        <v>13217</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>14</v>
-      </c>
-      <c r="I13" s="7">
-        <v>13008</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>29</v>
-      </c>
-      <c r="N13" s="7">
-        <v>26226</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1420,49 +1440,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>63</v>
-      </c>
-      <c r="D14" s="7">
-        <v>53004</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>65</v>
-      </c>
-      <c r="I14" s="7">
-        <v>46785</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>128</v>
-      </c>
-      <c r="N14" s="7">
-        <v>99789</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1471,102 +1485,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>80</v>
-      </c>
-      <c r="D15" s="7">
-        <v>67597</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>82</v>
-      </c>
-      <c r="I15" s="7">
-        <v>62453</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>162</v>
-      </c>
-      <c r="N15" s="7">
-        <v>130050</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>146</v>
       </c>
       <c r="D16" s="7">
-        <v>1684</v>
+        <v>121746</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>132</v>
       </c>
       <c r="I16" s="7">
-        <v>705</v>
+        <v>96546</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>278</v>
       </c>
       <c r="N16" s="7">
-        <v>2389</v>
+        <v>218291</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1575,49 +1583,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="D17" s="7">
-        <v>1346</v>
+        <v>37380</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="I17" s="7">
-        <v>1586</v>
+        <v>32848</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="N17" s="7">
-        <v>2932</v>
+        <v>70227</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1626,49 +1634,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D18" s="7">
-        <v>8940</v>
+        <v>2864</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>4965</v>
+        <v>2727</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="N18" s="7">
-        <v>13904</v>
+        <v>5591</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,49 +1685,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>91</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>83652</v>
+        <v>1649</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>80437</v>
+        <v>993</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
-        <v>187</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>164089</v>
+        <v>2642</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1728,49 +1736,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>302</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>255356</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="H20" s="7">
-        <v>286</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>210416</v>
+        <v>692</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="M20" s="7">
-        <v>588</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>465772</v>
+        <v>692</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1779,102 +1787,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>408</v>
+        <v>195</v>
       </c>
       <c r="D21" s="7">
-        <v>350978</v>
+        <v>163639</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>393</v>
+        <v>177</v>
       </c>
       <c r="I21" s="7">
-        <v>298109</v>
+        <v>133806</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>801</v>
+        <v>372</v>
       </c>
       <c r="N21" s="7">
-        <v>649087</v>
+        <v>297444</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>219</v>
       </c>
       <c r="D22" s="7">
-        <v>1684</v>
+        <v>186614</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>219</v>
       </c>
       <c r="I22" s="7">
-        <v>1396</v>
+        <v>160655</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="M22" s="7">
-        <v>4</v>
+        <v>438</v>
       </c>
       <c r="N22" s="7">
-        <v>3080</v>
+        <v>347270</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1883,49 +1891,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="D23" s="7">
-        <v>2358</v>
+        <v>59490</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="H23" s="7">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="I23" s="7">
-        <v>1586</v>
+        <v>60597</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="M23" s="7">
-        <v>5</v>
+        <v>133</v>
       </c>
       <c r="N23" s="7">
-        <v>3944</v>
+        <v>120088</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,49 +1942,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D24" s="7">
-        <v>9304</v>
+        <v>6440</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="H24" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I24" s="7">
-        <v>6932</v>
+        <v>4205</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="M24" s="7">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N24" s="7">
-        <v>16236</v>
+        <v>10645</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>113</v>
+        <v>85</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,49 +1993,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>106</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>96870</v>
+        <v>708</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="H25" s="7">
-        <v>110</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>93446</v>
+        <v>593</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="M25" s="7">
-        <v>216</v>
+        <v>2</v>
       </c>
       <c r="N25" s="7">
-        <v>190315</v>
+        <v>1302</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2036,49 +2044,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>365</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>308360</v>
+        <v>1684</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>125</v>
+        <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="H26" s="7">
-        <v>351</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>257201</v>
+        <v>705</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="M26" s="7">
-        <v>716</v>
+        <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>565562</v>
+        <v>2389</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2087,55 +2095,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>293</v>
+      </c>
+      <c r="D27" s="7">
+        <v>254937</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="7">
+        <v>298</v>
+      </c>
+      <c r="I27" s="7">
+        <v>226756</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M27" s="7">
+        <v>591</v>
+      </c>
+      <c r="N27" s="7">
+        <v>481693</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>365</v>
+      </c>
+      <c r="D28" s="7">
+        <v>308360</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="7">
+        <v>351</v>
+      </c>
+      <c r="I28" s="7">
+        <v>257201</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="M28" s="7">
+        <v>716</v>
+      </c>
+      <c r="N28" s="7">
+        <v>565562</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>106</v>
+      </c>
+      <c r="D29" s="7">
+        <v>96870</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="7">
+        <v>110</v>
+      </c>
+      <c r="I29" s="7">
+        <v>93446</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M29" s="7">
+        <v>216</v>
+      </c>
+      <c r="N29" s="7">
+        <v>190315</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>12</v>
+      </c>
+      <c r="D30" s="7">
+        <v>9304</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H30" s="7">
+        <v>10</v>
+      </c>
+      <c r="I30" s="7">
+        <v>6932</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M30" s="7">
+        <v>22</v>
+      </c>
+      <c r="N30" s="7">
+        <v>16236</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>3</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2358</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" s="7">
+        <v>2</v>
+      </c>
+      <c r="I31" s="7">
+        <v>1586</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M31" s="7">
+        <v>5</v>
+      </c>
+      <c r="N31" s="7">
+        <v>3944</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1684</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1396</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M32" s="7">
+        <v>4</v>
+      </c>
+      <c r="N32" s="7">
+        <v>3080</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>488</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>418575</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="7">
         <v>475</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>360562</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M33" s="7">
         <v>963</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>779138</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>54</v>
+      <c r="O33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07A24_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A24_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AE3315D-CF58-4614-92AA-C75E91AA7624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0383B6CB-DE06-4B92-91BF-74DD80580902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F09C25EB-5FDC-4B28-9AE0-CB4DE5BE12B7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E3F67E63-0103-4B0B-9CE6-988A15C0FB3B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="136">
   <si>
     <t>Menores según frecuencia de haberse divertido con sus amigos en 2023 (Tasa respuesta: 50,16%)</t>
   </si>
@@ -95,55 +95,55 @@
     <t>74,4%</t>
   </si>
   <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
+    <t>67,7%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
   </si>
   <si>
     <t>72,15%</t>
   </si>
   <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>78,64%</t>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
   </si>
   <si>
     <t>73,39%</t>
   </si>
   <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
   </si>
   <si>
     <t>22,84%</t>
   </si>
   <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
   </si>
   <si>
     <t>24,55%</t>
   </si>
   <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
   </si>
   <si>
     <t>23,61%</t>
   </si>
   <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
   </si>
   <si>
     <t>1,75%</t>
@@ -152,25 +152,25 @@
     <t>0,43%</t>
   </si>
   <si>
-    <t>5,0%</t>
+    <t>4,39%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
   </si>
   <si>
     <t>1,01%</t>
@@ -179,13 +179,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>3,68%</t>
+    <t>3,47%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>3,38%</t>
+    <t>3,75%</t>
   </si>
   <si>
     <t>0,89%</t>
@@ -194,7 +194,7 @@
     <t>0,22%</t>
   </si>
   <si>
-    <t>2,55%</t>
+    <t>2,49%</t>
   </si>
   <si>
     <t>0%</t>
@@ -206,13 +206,13 @@
     <t>0,52%</t>
   </si>
   <si>
-    <t>3,12%</t>
+    <t>2,77%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>1,37%</t>
+    <t>1,2%</t>
   </si>
   <si>
     <t>100%</t>
@@ -224,79 +224,73 @@
     <t>73,2%</t>
   </si>
   <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
+    <t>67,05%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
   </si>
   <si>
     <t>70,85%</t>
   </si>
   <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
   </si>
   <si>
     <t>72,09%</t>
   </si>
   <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
   </si>
   <si>
     <t>23,34%</t>
   </si>
   <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
   </si>
   <si>
     <t>26,72%</t>
   </si>
   <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>36,76%</t>
   </si>
   <si>
     <t>24,93%</t>
   </si>
   <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
+    <t>4,86%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
+    <t>3,86%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
-    <t>1,31%</t>
+    <t>1,25%</t>
   </si>
   <si>
     <t>3,77%</t>
@@ -305,157 +299,148 @@
     <t>0,28%</t>
   </si>
   <si>
+    <t>1,39%</t>
+  </si>
+  <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>1,25%</t>
+    <t>1,52%</t>
   </si>
   <si>
     <t>0,27%</t>
   </si>
   <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
     <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -870,7 +855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{429072A8-2ADA-4FF8-BAE4-955AA18320C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEA8D47-9F09-42D1-9EDC-D6CA0CCEDF6E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1951,10 +1936,10 @@
         <v>79</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -1963,13 +1948,13 @@
         <v>4205</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
@@ -1978,13 +1963,13 @@
         <v>10645</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1999,13 +1984,13 @@
         <v>708</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2014,13 +1999,13 @@
         <v>593</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M25" s="7">
         <v>2</v>
@@ -2029,13 +2014,13 @@
         <v>1302</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>46</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2050,13 +2035,13 @@
         <v>1684</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2065,13 +2050,13 @@
         <v>705</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2080,13 +2065,13 @@
         <v>2389</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2154,13 +2139,13 @@
         <v>308360</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H28" s="7">
         <v>351</v>
@@ -2169,13 +2154,13 @@
         <v>257201</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M28" s="7">
         <v>716</v>
@@ -2184,13 +2169,13 @@
         <v>565562</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,13 +2190,13 @@
         <v>96870</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H29" s="7">
         <v>110</v>
@@ -2220,13 +2205,13 @@
         <v>93446</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M29" s="7">
         <v>216</v>
@@ -2235,13 +2220,13 @@
         <v>190315</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,13 +2241,13 @@
         <v>9304</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -2271,13 +2256,13 @@
         <v>6932</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -2286,13 +2271,13 @@
         <v>16236</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,13 +2292,13 @@
         <v>2358</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -2322,13 +2307,13 @@
         <v>1586</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="M31" s="7">
         <v>5</v>
@@ -2337,13 +2322,13 @@
         <v>3944</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,13 +2343,13 @@
         <v>1684</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -2373,13 +2358,13 @@
         <v>1396</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>46</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -2388,13 +2373,13 @@
         <v>3080</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2450,7 +2435,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A24_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07A24_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0383B6CB-DE06-4B92-91BF-74DD80580902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D206172-1B37-4BAD-BDFC-532111D337B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E3F67E63-0103-4B0B-9CE6-988A15C0FB3B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D59F7943-626E-4C41-9919-E969C14E585D}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="136">
-  <si>
-    <t>Menores según frecuencia de haberse divertido con sus amigos en 2023 (Tasa respuesta: 50,16%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="143">
+  <si>
+    <t>Menores según frecuencia de haberse divertido con sus amigos en 2023 (Tasa respuesta: 50,1%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -92,355 +92,376 @@
     <t>8-11</t>
   </si>
   <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
   </si>
   <si>
     <t>5,46%</t>
   </si>
   <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
   </si>
   <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>67,05%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>70,85%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
     <t>4,02%</t>
   </si>
   <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -855,7 +876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EEA8D47-9F09-42D1-9EDC-D6CA0CCEDF6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08CF52AE-B0A0-41AC-A502-ABB8A125899D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1517,10 +1538,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>146</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>121746</v>
+        <v>2505</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -1532,10 +1553,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="I16" s="7">
-        <v>96546</v>
+        <v>10578</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -1547,10 +1568,10 @@
         <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>278</v>
+        <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>218291</v>
+        <v>13083</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>24</v>
@@ -1568,49 +1589,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>37380</v>
+        <v>2814</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>4</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3653</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="7">
-        <v>40</v>
-      </c>
-      <c r="I17" s="7">
-        <v>32848</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>8</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6468</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="7">
-        <v>83</v>
-      </c>
-      <c r="N17" s="7">
-        <v>70227</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1619,49 +1640,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D18" s="7">
-        <v>2864</v>
+        <v>4449</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="H18" s="7">
+        <v>2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1510</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="7">
-        <v>3</v>
-      </c>
-      <c r="I18" s="7">
-        <v>2727</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>8</v>
+      </c>
+      <c r="N18" s="7">
+        <v>5959</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="P18" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M18" s="7">
-        <v>7</v>
-      </c>
-      <c r="N18" s="7">
-        <v>5591</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1670,49 +1691,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D19" s="7">
-        <v>1649</v>
+        <v>23573</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="7">
+        <v>31</v>
+      </c>
+      <c r="I19" s="7">
+        <v>25454</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>63</v>
+      </c>
+      <c r="N19" s="7">
+        <v>49027</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>993</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2642</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1721,46 +1742,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>97946</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="7">
+        <v>149</v>
+      </c>
+      <c r="I20" s="7">
+        <v>130131</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>692</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>281</v>
+      </c>
+      <c r="N20" s="7">
+        <v>228077</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>692</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>58</v>
@@ -1772,25 +1793,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>177</v>
+      </c>
+      <c r="D21" s="7">
+        <v>131287</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="7">
         <v>195</v>
       </c>
-      <c r="D21" s="7">
-        <v>163639</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H21" s="7">
-        <v>177</v>
-      </c>
       <c r="I21" s="7">
-        <v>133806</v>
+        <v>171327</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>59</v>
@@ -1805,7 +1826,7 @@
         <v>372</v>
       </c>
       <c r="N21" s="7">
-        <v>297444</v>
+        <v>302614</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>59</v>
@@ -1825,10 +1846,10 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>219</v>
+        <v>7</v>
       </c>
       <c r="D22" s="7">
-        <v>186614</v>
+        <v>6015</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>61</v>
@@ -1840,10 +1861,10 @@
         <v>63</v>
       </c>
       <c r="H22" s="7">
-        <v>219</v>
+        <v>9</v>
       </c>
       <c r="I22" s="7">
-        <v>160655</v>
+        <v>7582</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>64</v>
@@ -1855,19 +1876,19 @@
         <v>66</v>
       </c>
       <c r="M22" s="7">
-        <v>438</v>
+        <v>16</v>
       </c>
       <c r="N22" s="7">
-        <v>347270</v>
+        <v>13597</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1876,49 +1897,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>63</v>
+        <v>6</v>
       </c>
       <c r="D23" s="7">
-        <v>59490</v>
+        <v>3918</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>6</v>
+      </c>
+      <c r="I23" s="7">
+        <v>3617</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H23" s="7">
-        <v>70</v>
-      </c>
-      <c r="I23" s="7">
-        <v>60597</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>12</v>
+      </c>
+      <c r="N23" s="7">
+        <v>7535</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M23" s="7">
-        <v>133</v>
-      </c>
-      <c r="N23" s="7">
-        <v>120088</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,49 +1948,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D24" s="7">
-        <v>6440</v>
+        <v>3616</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="7">
+        <v>16</v>
+      </c>
+      <c r="I24" s="7">
+        <v>12466</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="7">
-        <v>7</v>
-      </c>
-      <c r="I24" s="7">
-        <v>4205</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>21</v>
+      </c>
+      <c r="N24" s="7">
+        <v>16081</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="M24" s="7">
-        <v>15</v>
-      </c>
-      <c r="N24" s="7">
-        <v>10645</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1978,49 +1999,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D25" s="7">
-        <v>708</v>
+        <v>36151</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>63</v>
+      </c>
+      <c r="I25" s="7">
+        <v>61129</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>593</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>89</v>
       </c>
       <c r="M25" s="7">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="N25" s="7">
-        <v>1302</v>
+        <v>97279</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>90</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,49 +2050,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>2</v>
+        <v>225</v>
       </c>
       <c r="D26" s="7">
-        <v>1684</v>
+        <v>186986</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="I26" s="7">
-        <v>705</v>
+        <v>183605</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M26" s="7">
-        <v>3</v>
+        <v>425</v>
       </c>
       <c r="N26" s="7">
-        <v>2389</v>
+        <v>370590</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2080,10 +2101,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D27" s="7">
-        <v>254937</v>
+        <v>236686</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>59</v>
@@ -2095,10 +2116,10 @@
         <v>59</v>
       </c>
       <c r="H27" s="7">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I27" s="7">
-        <v>226756</v>
+        <v>268398</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>59</v>
@@ -2110,10 +2131,10 @@
         <v>59</v>
       </c>
       <c r="M27" s="7">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="N27" s="7">
-        <v>481693</v>
+        <v>505083</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>59</v>
@@ -2133,49 +2154,49 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>365</v>
+        <v>10</v>
       </c>
       <c r="D28" s="7">
-        <v>308360</v>
+        <v>8520</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H28" s="7">
-        <v>351</v>
+        <v>18</v>
       </c>
       <c r="I28" s="7">
-        <v>257201</v>
+        <v>18161</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M28" s="7">
-        <v>716</v>
+        <v>28</v>
       </c>
       <c r="N28" s="7">
-        <v>565562</v>
+        <v>26681</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2184,49 +2205,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>106</v>
+        <v>10</v>
       </c>
       <c r="D29" s="7">
-        <v>96870</v>
+        <v>6733</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H29" s="7">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="I29" s="7">
-        <v>93446</v>
+        <v>7270</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M29" s="7">
-        <v>216</v>
+        <v>20</v>
       </c>
       <c r="N29" s="7">
-        <v>190315</v>
+        <v>14003</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2235,49 +2256,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D30" s="7">
-        <v>9304</v>
+        <v>8065</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="H30" s="7">
+        <v>18</v>
+      </c>
+      <c r="I30" s="7">
+        <v>13976</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H30" s="7">
-        <v>10</v>
-      </c>
-      <c r="I30" s="7">
-        <v>6932</v>
-      </c>
-      <c r="J30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>29</v>
+      </c>
+      <c r="N30" s="7">
+        <v>22040</v>
+      </c>
+      <c r="O30" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M30" s="7">
-        <v>22</v>
-      </c>
-      <c r="N30" s="7">
-        <v>16236</v>
-      </c>
-      <c r="O30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2286,13 +2307,13 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D31" s="7">
-        <v>2358</v>
+        <v>59723</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>125</v>
@@ -2301,34 +2322,34 @@
         <v>126</v>
       </c>
       <c r="H31" s="7">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="I31" s="7">
-        <v>1586</v>
+        <v>86583</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>127</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="M31" s="7">
-        <v>5</v>
+        <v>179</v>
       </c>
       <c r="N31" s="7">
-        <v>3944</v>
+        <v>146306</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2337,49 +2358,49 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>2</v>
+        <v>357</v>
       </c>
       <c r="D32" s="7">
-        <v>1684</v>
+        <v>284932</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="H32" s="7">
-        <v>2</v>
+        <v>349</v>
       </c>
       <c r="I32" s="7">
-        <v>1396</v>
+        <v>313735</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="M32" s="7">
-        <v>4</v>
+        <v>706</v>
       </c>
       <c r="N32" s="7">
-        <v>3080</v>
+        <v>598667</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2388,10 +2409,10 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="D33" s="7">
-        <v>418575</v>
+        <v>367973</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>59</v>
@@ -2403,10 +2424,10 @@
         <v>59</v>
       </c>
       <c r="H33" s="7">
-        <v>475</v>
+        <v>489</v>
       </c>
       <c r="I33" s="7">
-        <v>360562</v>
+        <v>439724</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>59</v>
@@ -2418,10 +2439,10 @@
         <v>59</v>
       </c>
       <c r="M33" s="7">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="N33" s="7">
-        <v>779138</v>
+        <v>807697</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>59</v>
@@ -2435,7 +2456,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
